--- a/Python/H3C/AP.xlsx
+++ b/Python/H3C/AP.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Python\H3C\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>serial id</t>
   </si>
@@ -45,127 +40,127 @@
     <t>Switch IP adddress</t>
   </si>
   <si>
-    <t>219801A0CLC13B001323</t>
-  </si>
-  <si>
-    <t>17f1</t>
+    <t>219801A0CLC13B001327</t>
+  </si>
+  <si>
+    <t>19f1</t>
   </si>
   <si>
     <t>WA2610i-GN</t>
   </si>
   <si>
-    <t>7425-8a7c-7810</t>
-  </si>
-  <si>
-    <t>10.10.100.71</t>
+    <t>7425-8a7c-7850</t>
+  </si>
+  <si>
+    <t>10.10.100.11</t>
   </si>
   <si>
     <t>Ethernet1/0/1</t>
   </si>
   <si>
-    <t>219801A0CLC14B000010</t>
-  </si>
-  <si>
-    <t>10f1</t>
-  </si>
-  <si>
-    <t>586a-b118-8790</t>
-  </si>
-  <si>
-    <t>10.10.100.1</t>
+    <t>219801A0CLC13B000427</t>
+  </si>
+  <si>
+    <t>19f2</t>
+  </si>
+  <si>
+    <t>7425-8a7c-39d0</t>
+  </si>
+  <si>
+    <t>10.10.100.6</t>
   </si>
   <si>
     <t>Ethernet1/0/2</t>
   </si>
   <si>
-    <t>219801A0CLC13B001186</t>
-  </si>
-  <si>
-    <t>11f2</t>
-  </si>
-  <si>
-    <t>7425-8a7c-6f90</t>
-  </si>
-  <si>
-    <t>10.10.100.4</t>
+    <t>219801A0CLC13B001205</t>
+  </si>
+  <si>
+    <t>18f1</t>
+  </si>
+  <si>
+    <t>7425-8a7c-70b0</t>
+  </si>
+  <si>
+    <t>10.10.100.5</t>
   </si>
   <si>
     <t>Ethernet1/0/3</t>
   </si>
   <si>
-    <t>219801A0CLC14B000062</t>
-  </si>
-  <si>
-    <t>10f2</t>
-  </si>
-  <si>
-    <t>586a-b118-8ad0</t>
-  </si>
-  <si>
-    <t>10.10.100.2</t>
+    <t>219801A0CLC13B001269</t>
+  </si>
+  <si>
+    <t>18f2</t>
+  </si>
+  <si>
+    <t>7425-8a7c-74b0</t>
+  </si>
+  <si>
+    <t>10.10.100.19</t>
   </si>
   <si>
     <t>Ethernet1/0/4</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10617</t>
-  </si>
-  <si>
-    <t>1118</t>
+    <t>219801A0FH9156Q11033</t>
+  </si>
+  <si>
+    <t>1806</t>
   </si>
   <si>
     <t>WA2610H-GN</t>
   </si>
   <si>
-    <t>741f-4a5f-54e0</t>
-  </si>
-  <si>
-    <t>10.10.100.62</t>
+    <t>741f-4a5f-64e0</t>
+  </si>
+  <si>
+    <t>10.10.100.93</t>
   </si>
   <si>
     <t>Ethernet1/0/5</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10782</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5b88</t>
-  </si>
-  <si>
-    <t>10.10.100.73</t>
+    <t>219801A0FH9156Q10476</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>741f-4a5f-51d0</t>
+  </si>
+  <si>
+    <t>10.10.100.107</t>
   </si>
   <si>
     <t>Ethernet1/0/6</t>
   </si>
   <si>
-    <t>219801A0FH914CQ05894</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>586a-b1a8-a5d0</t>
-  </si>
-  <si>
-    <t>10.10.100.74</t>
+    <t>219801A0FH9156Q10355</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>741f-4a5f-5180</t>
+  </si>
+  <si>
+    <t>10.10.100.105</t>
   </si>
   <si>
     <t>Ethernet1/0/7</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10737</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5d88</t>
-  </si>
-  <si>
-    <t>10.10.100.63</t>
+    <t>219801A0FH9156Q11007</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>741f-4a5f-65b0</t>
+  </si>
+  <si>
+    <t>10.10.100.104</t>
   </si>
   <si>
     <t>Ethernet1/0/8</t>
@@ -177,226 +172,91 @@
     <t>Ethernet1/0/9</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10772</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5e80</t>
-  </si>
-  <si>
-    <t>10.10.100.75</t>
-  </si>
-  <si>
-    <t>Ethernet1/0/10</t>
-  </si>
-  <si>
-    <t>219801A0FH9156Q10959</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>741f-4a5f-63c8</t>
-  </si>
-  <si>
-    <t>10.10.100.78</t>
+    <t>219801A0FH9156Q10871</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>741f-4a5f-5fa8</t>
+  </si>
+  <si>
+    <t>10.10.100.102</t>
   </si>
   <si>
     <t>Ethernet1/0/11</t>
   </si>
   <si>
-    <t>219801A0FH914CQ05254</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>586a-b1a8-91f8</t>
-  </si>
-  <si>
-    <t>10.10.100.66</t>
+    <t>219801A0FH9156Q10706</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>741f-4a5f-5bf0</t>
+  </si>
+  <si>
+    <t>10.10.100.109</t>
   </si>
   <si>
     <t>Ethernet1/0/12</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10776</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5b68</t>
-  </si>
-  <si>
-    <t>10.10.100.59</t>
+    <t>219801A0FH9156Q10366</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>741f-4a5f-50e8</t>
+  </si>
+  <si>
+    <t>10.10.100.91</t>
   </si>
   <si>
     <t>Ethernet1/0/13</t>
   </si>
   <si>
-    <t>219801A0FH914CQ05265</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>586a-b1a8-9248</t>
-  </si>
-  <si>
-    <t>10.10.100.64</t>
+    <t>219801A0FH9156Q10594</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>741f-4a5f-5558</t>
+  </si>
+  <si>
+    <t>10.10.100.111</t>
   </si>
   <si>
     <t>Ethernet1/0/14</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10984</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>741f-4a5f-62e0</t>
-  </si>
-  <si>
-    <t>10.10.100.67</t>
-  </si>
-  <si>
     <t>Ethernet1/0/15</t>
   </si>
   <si>
-    <t>219801A0FH914CQ05276</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>586a-b1a8-92b0</t>
-  </si>
-  <si>
-    <t>10.10.100.65</t>
-  </si>
-  <si>
     <t>Ethernet1/0/16</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10701</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5bc8</t>
-  </si>
-  <si>
-    <t>10.10.100.69</t>
-  </si>
-  <si>
     <t>Ethernet1/0/17</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10602</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5540</t>
-  </si>
-  <si>
-    <t>10.10.100.70</t>
-  </si>
-  <si>
     <t>Ethernet1/0/18</t>
   </si>
   <si>
-    <t>219801A0CLC14B000007</t>
-  </si>
-  <si>
-    <t>09f2</t>
-  </si>
-  <si>
-    <t>586a-b118-8760</t>
-  </si>
-  <si>
-    <t>10.10.100.19</t>
-  </si>
-  <si>
     <t>Ethernet1/0/19</t>
   </si>
   <si>
-    <t>219801A0CLC14C000457</t>
-  </si>
-  <si>
-    <t>01f2</t>
-  </si>
-  <si>
-    <t>586a-b11d-3130</t>
-  </si>
-  <si>
-    <t>10.10.100.72</t>
-  </si>
-  <si>
     <t>Ethernet1/0/20</t>
   </si>
   <si>
-    <t>219801A0CLC14B000049</t>
-  </si>
-  <si>
-    <t>09f1</t>
-  </si>
-  <si>
-    <t>586a-b118-8a00</t>
-  </si>
-  <si>
-    <t>10.10.100.9</t>
-  </si>
-  <si>
     <t>Ethernet1/0/21</t>
   </si>
   <si>
-    <t>219801A0CLC13B001178</t>
-  </si>
-  <si>
-    <t>01f1</t>
-  </si>
-  <si>
-    <t>7425-8a7c-6f00</t>
-  </si>
-  <si>
-    <t>10.10.100.3</t>
-  </si>
-  <si>
     <t>Ethernet1/0/22</t>
   </si>
   <si>
-    <t>219801A0FH9156Q10780</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>741f-4a5f-5b78</t>
-  </si>
-  <si>
-    <t>10.10.100.77</t>
-  </si>
-  <si>
     <t>Ethernet1/0/23</t>
-  </si>
-  <si>
-    <t>219801A0FH9151Q03932</t>
-  </si>
-  <si>
-    <t>09f3</t>
-  </si>
-  <si>
-    <t>3c8c-4033-e190</t>
-  </si>
-  <si>
-    <t>10.10.100.80</t>
   </si>
   <si>
     <t>Ethernet1/0/24</t>
@@ -405,20 +265,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -446,23 +299,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +415,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,25 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -831,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -851,7 +683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -871,7 +703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -891,7 +723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -911,7 +743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -931,7 +763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -951,7 +783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -971,7 +803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -991,7 +823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -1011,7 +843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1031,7 +863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1051,228 +883,207 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
         <v>79</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>126</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>